--- a/word/3.毕业要求达成度、质量跟踪评价表.xlsx
+++ b/word/3.毕业要求达成度、质量跟踪评价表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\学习\毕业设计\fcos_implementation\word\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7132CDF-469A-4713-988C-19C05774BC54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AF30C7F-F584-4CF5-A4CF-A744C7C09C74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2550" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -532,6 +532,33 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -541,21 +568,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -564,18 +576,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -928,8 +928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -941,33 +941,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
     </row>
     <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="28" t="s">
+      <c r="B2" s="22"/>
+      <c r="C2" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="21"/>
+      <c r="D2" s="22"/>
       <c r="E2" s="15" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="21"/>
+      <c r="B3" s="22"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="15" t="s">
@@ -978,10 +978,10 @@
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="23"/>
+      <c r="C5" s="24"/>
       <c r="D5" s="2" t="s">
         <v>3</v>
       </c>
@@ -996,10 +996,10 @@
       <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="20"/>
+      <c r="C6" s="23"/>
       <c r="D6" s="4">
         <v>15</v>
       </c>
@@ -1012,10 +1012,10 @@
       <c r="A7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="20"/>
+      <c r="C7" s="23"/>
       <c r="D7" s="4">
         <v>20</v>
       </c>
@@ -1028,10 +1028,10 @@
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="20"/>
+      <c r="C8" s="23"/>
       <c r="D8" s="4">
         <v>10</v>
       </c>
@@ -1044,10 +1044,10 @@
       <c r="A9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="20"/>
+      <c r="C9" s="23"/>
       <c r="D9" s="4">
         <v>20</v>
       </c>
@@ -1060,10 +1060,10 @@
       <c r="A10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="20"/>
+      <c r="C10" s="23"/>
       <c r="D10" s="4">
         <v>25</v>
       </c>
@@ -1076,10 +1076,10 @@
       <c r="A11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="20"/>
+      <c r="C11" s="23"/>
       <c r="D11" s="4">
         <v>10</v>
       </c>
@@ -1092,14 +1092,14 @@
       <c r="A12" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="17">
+      <c r="B12" s="26">
         <f>ROUND((D6*(E6+F6)+D7*(E7+F7)+D8*(E8+F8)+D9*(E9+F9)+D10*(F10+F10)+D11*(E11+F11))/8,0)</f>
         <v>35</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="19"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="28"/>
     </row>
     <row r="15" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
@@ -1127,151 +1127,151 @@
       <c r="F17" s="16"/>
     </row>
     <row r="19" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
     </row>
     <row r="20" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="31" t="s">
+      <c r="A20" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="21"/>
+      <c r="B20" s="22"/>
       <c r="C20" s="7"/>
-      <c r="D20" s="28" t="s">
+      <c r="D20" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
     </row>
     <row r="21" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="28" t="s">
+      <c r="A21" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="21"/>
+      <c r="B21" s="22"/>
       <c r="C21" s="3"/>
-      <c r="D21" s="28" t="s">
+      <c r="D21" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
     </row>
     <row r="23" spans="1:6" ht="39.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="23"/>
+      <c r="C23" s="24"/>
       <c r="D23" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E23" s="29" t="s">
+      <c r="E23" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F23" s="29"/>
+      <c r="F23" s="18"/>
     </row>
     <row r="24" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>1</v>
       </c>
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="20"/>
+      <c r="C24" s="23"/>
       <c r="D24" s="4">
         <v>25</v>
       </c>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
     </row>
     <row r="25" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>2</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="20"/>
+      <c r="C25" s="23"/>
       <c r="D25" s="4">
         <v>20</v>
       </c>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
     </row>
     <row r="26" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>3</v>
       </c>
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="20"/>
+      <c r="C26" s="23"/>
       <c r="D26" s="4">
         <v>15</v>
       </c>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
     </row>
     <row r="27" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>4</v>
       </c>
-      <c r="B27" s="20" t="s">
+      <c r="B27" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="20"/>
+      <c r="C27" s="23"/>
       <c r="D27" s="4">
         <v>10</v>
       </c>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
     </row>
     <row r="28" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>5</v>
       </c>
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="20"/>
+      <c r="C28" s="23"/>
       <c r="D28" s="4">
         <v>20</v>
       </c>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
     </row>
     <row r="29" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
         <v>6</v>
       </c>
-      <c r="B29" s="20" t="s">
+      <c r="B29" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="20"/>
+      <c r="C29" s="23"/>
       <c r="D29" s="4">
         <v>10</v>
       </c>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="25">
+      <c r="B30" s="29">
         <f>ROUND((D24*E24+D25*E25+D26*E26+D27*E27+D28*E28+D29*E29)/4,0)</f>
         <v>0</v>
       </c>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="27"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="31"/>
     </row>
     <row r="32" spans="1:6" ht="87.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1308,6 +1308,26 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A34:E34"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D21:F21"/>
     <mergeCell ref="A35:F35"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="E23:F23"/>
@@ -1324,26 +1344,6 @@
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B5:C5"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="A34:E34"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="B30:F30"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B30:F30">
@@ -1359,7 +1359,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:F11 E24:F29" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"1,2,3,4"</formula1>
     </dataValidation>

--- a/word/3.毕业要求达成度、质量跟踪评价表.xlsx
+++ b/word/3.毕业要求达成度、质量跟踪评价表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\学习\毕业设计\fcos_implementation\word\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AF30C7F-F584-4CF5-A4CF-A744C7C09C74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A35ED149-B98A-40CA-8E51-42394226EF6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -532,50 +532,50 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -603,6 +603,161 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>11403</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>373380</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>82532</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>377276</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B4F1AAB-D392-4D55-8766-CA25965B6DE0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="4838000" y="10146703"/>
+          <a:ext cx="384896" cy="802649"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>26643</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>358138</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>97772</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>362034</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95F09069-EFC3-44AA-BE7C-F4E8EC3EC792}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="5584760" y="956981"/>
+          <a:ext cx="384896" cy="802649"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>680085</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>760094</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>164735</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BECFB0B-A72C-4D1B-8560-AB4A8FF83342}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="5484042" y="573857"/>
+          <a:ext cx="593361" cy="965835"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -928,8 +1083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -941,21 +1096,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
     </row>
     <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="21" t="s">
         <v>34</v>
       </c>
       <c r="B2" s="22"/>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="23" t="s">
         <v>35</v>
       </c>
       <c r="D2" s="22"/>
@@ -964,7 +1119,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="23" t="s">
         <v>36</v>
       </c>
       <c r="B3" s="22"/>
@@ -978,10 +1133,10 @@
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="24"/>
+      <c r="C5" s="25"/>
       <c r="D5" s="2" t="s">
         <v>3</v>
       </c>
@@ -996,110 +1151,122 @@
       <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="23"/>
+      <c r="C6" s="20"/>
       <c r="D6" s="4">
         <v>15</v>
       </c>
       <c r="E6" s="14">
         <v>4</v>
       </c>
-      <c r="F6" s="4"/>
+      <c r="F6" s="4">
+        <v>4</v>
+      </c>
     </row>
     <row r="7" spans="1:6" ht="54.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="23"/>
+      <c r="C7" s="20"/>
       <c r="D7" s="4">
         <v>20</v>
       </c>
       <c r="E7" s="13">
-        <v>3</v>
-      </c>
-      <c r="F7" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="F7" s="4">
+        <v>4</v>
+      </c>
     </row>
     <row r="8" spans="1:6" ht="54.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="23"/>
+      <c r="C8" s="20"/>
       <c r="D8" s="4">
         <v>10</v>
       </c>
       <c r="E8" s="13">
-        <v>4</v>
-      </c>
-      <c r="F8" s="4"/>
+        <v>3</v>
+      </c>
+      <c r="F8" s="4">
+        <v>3</v>
+      </c>
     </row>
     <row r="9" spans="1:6" ht="54.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="23"/>
+      <c r="C9" s="20"/>
       <c r="D9" s="4">
         <v>20</v>
       </c>
       <c r="E9" s="13">
         <v>4</v>
       </c>
-      <c r="F9" s="4"/>
+      <c r="F9" s="4">
+        <v>4</v>
+      </c>
     </row>
     <row r="10" spans="1:6" ht="54.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="23"/>
+      <c r="C10" s="20"/>
       <c r="D10" s="4">
         <v>25</v>
       </c>
       <c r="E10" s="13">
         <v>3</v>
       </c>
-      <c r="F10" s="4"/>
+      <c r="F10" s="4">
+        <v>3</v>
+      </c>
     </row>
     <row r="11" spans="1:6" ht="54.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="23"/>
+      <c r="C11" s="20"/>
       <c r="D11" s="4">
         <v>10</v>
       </c>
       <c r="E11" s="13">
         <v>4</v>
       </c>
-      <c r="F11" s="4"/>
+      <c r="F11" s="4">
+        <v>4</v>
+      </c>
     </row>
     <row r="12" spans="1:6" ht="54.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="26">
+      <c r="B12" s="17">
         <f>ROUND((D6*(E6+F6)+D7*(E7+F7)+D8*(E8+F8)+D9*(E9+F9)+D10*(F10+F10)+D11*(E11+F11))/8,0)</f>
-        <v>35</v>
-      </c>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="28"/>
+        <v>91</v>
+      </c>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="19"/>
     </row>
     <row r="15" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
@@ -1127,34 +1294,34 @@
       <c r="F17" s="16"/>
     </row>
     <row r="19" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
     </row>
     <row r="20" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="25" t="s">
+      <c r="A20" s="21" t="s">
         <v>34</v>
       </c>
       <c r="B20" s="22"/>
       <c r="C20" s="7"/>
-      <c r="D20" s="21" t="s">
+      <c r="D20" s="23" t="s">
         <v>37</v>
       </c>
       <c r="E20" s="22"/>
       <c r="F20" s="22"/>
     </row>
     <row r="21" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="23" t="s">
         <v>36</v>
       </c>
       <c r="B21" s="22"/>
       <c r="C21" s="3"/>
-      <c r="D21" s="21" t="s">
+      <c r="D21" s="23" t="s">
         <v>32</v>
       </c>
       <c r="E21" s="22"/>
@@ -1164,114 +1331,126 @@
       <c r="A23" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="24" t="s">
+      <c r="B23" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="24"/>
+      <c r="C23" s="25"/>
       <c r="D23" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E23" s="18" t="s">
+      <c r="E23" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="F23" s="18"/>
+      <c r="F23" s="30"/>
     </row>
     <row r="24" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>1</v>
       </c>
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="23"/>
+      <c r="C24" s="20"/>
       <c r="D24" s="4">
         <v>25</v>
       </c>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
+      <c r="E24" s="31">
+        <v>4</v>
+      </c>
+      <c r="F24" s="31"/>
     </row>
     <row r="25" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>2</v>
       </c>
-      <c r="B25" s="23" t="s">
+      <c r="B25" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="23"/>
+      <c r="C25" s="20"/>
       <c r="D25" s="4">
         <v>20</v>
       </c>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
+      <c r="E25" s="26">
+        <v>4</v>
+      </c>
+      <c r="F25" s="26"/>
     </row>
     <row r="26" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>3</v>
       </c>
-      <c r="B26" s="23" t="s">
+      <c r="B26" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="23"/>
+      <c r="C26" s="20"/>
       <c r="D26" s="4">
         <v>15</v>
       </c>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
+      <c r="E26" s="26">
+        <v>3</v>
+      </c>
+      <c r="F26" s="26"/>
     </row>
     <row r="27" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>4</v>
       </c>
-      <c r="B27" s="23" t="s">
+      <c r="B27" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="23"/>
+      <c r="C27" s="20"/>
       <c r="D27" s="4">
         <v>10</v>
       </c>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
+      <c r="E27" s="26">
+        <v>3</v>
+      </c>
+      <c r="F27" s="26"/>
     </row>
     <row r="28" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>5</v>
       </c>
-      <c r="B28" s="23" t="s">
+      <c r="B28" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="23"/>
+      <c r="C28" s="20"/>
       <c r="D28" s="4">
         <v>20</v>
       </c>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
+      <c r="E28" s="26">
+        <v>4</v>
+      </c>
+      <c r="F28" s="26"/>
     </row>
     <row r="29" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
         <v>6</v>
       </c>
-      <c r="B29" s="23" t="s">
+      <c r="B29" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="23"/>
+      <c r="C29" s="20"/>
       <c r="D29" s="4">
         <v>10</v>
       </c>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
+      <c r="E29" s="26">
+        <v>3</v>
+      </c>
+      <c r="F29" s="26"/>
     </row>
     <row r="30" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="29">
+      <c r="B30" s="27">
         <f>ROUND((D24*E24+D25*E25+D26*E26+D27*E27+D28*E28+D29*E29)/4,0)</f>
-        <v>0</v>
-      </c>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="31"/>
+        <v>91</v>
+      </c>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="29"/>
     </row>
     <row r="32" spans="1:6" ht="87.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1308,26 +1487,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="A34:E34"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="B30:F30"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D21:F21"/>
     <mergeCell ref="A35:F35"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="E23:F23"/>
@@ -1344,6 +1503,26 @@
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B5:C5"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="A34:E34"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="B30:F30"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B30:F30">
@@ -1359,13 +1538,14 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:F11 E24:F29" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"1,2,3,4"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/word/3.毕业要求达成度、质量跟踪评价表.xlsx
+++ b/word/3.毕业要求达成度、质量跟踪评价表.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\学习\毕业设计\fcos_implementation\word\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\Desktop\2020本科论文评阅\陶润洲-无锚点框的全卷积单阶段目标检测方法研究-评语表(1)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A35ED149-B98A-40CA-8E51-42394226EF6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12580"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -304,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -836,23 +835,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -888,23 +870,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1080,19 +1045,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" style="10" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" customWidth="1"/>
-    <col min="3" max="3" width="14.77734375" customWidth="1"/>
-    <col min="4" max="6" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="26.90625" customWidth="1"/>
+    <col min="3" max="3" width="14.81640625" customWidth="1"/>
+    <col min="4" max="6" width="10.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1216,7 +1181,7 @@
         <v>4</v>
       </c>
       <c r="F9" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="54.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -1234,7 +1199,7 @@
         <v>3</v>
       </c>
       <c r="F10" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="54.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -1261,19 +1226,19 @@
       </c>
       <c r="B12" s="17">
         <f>ROUND((D6*(E6+F6)+D7*(E7+F7)+D8*(E8+F8)+D9*(E9+F9)+D10*(F10+F10)+D11*(E11+F11))/8,0)</f>
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C12" s="18"/>
       <c r="D12" s="18"/>
       <c r="E12" s="18"/>
       <c r="F12" s="19"/>
     </row>
-    <row r="15" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
         <v>25</v>
       </c>
@@ -1283,7 +1248,7 @@
       <c r="E16" s="16"/>
       <c r="F16" s="16"/>
     </row>
-    <row r="17" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
         <v>7</v>
       </c>
@@ -1387,7 +1352,7 @@
         <v>15</v>
       </c>
       <c r="E26" s="26">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F26" s="26"/>
     </row>
@@ -1445,7 +1410,7 @@
       </c>
       <c r="B30" s="27">
         <f>ROUND((D24*E24+D25*E25+D26*E26+D27*E27+D28*E28+D29*E29)/4,0)</f>
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C30" s="28"/>
       <c r="D30" s="28"/>
@@ -1453,12 +1418,12 @@
       <c r="F30" s="29"/>
     </row>
     <row r="32" spans="1:6" ht="87.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="16" t="s">
         <v>23</v>
       </c>
@@ -1467,7 +1432,7 @@
       <c r="D34" s="16"/>
       <c r="E34" s="16"/>
     </row>
-    <row r="35" spans="1:6" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="35.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="16" t="s">
         <v>22</v>
       </c>
@@ -1539,7 +1504,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:F11 E24:F29" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:F11 E24:F29">
       <formula1>"1,2,3,4"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1550,12 +1515,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1563,12 +1528,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
